--- a/Pago-Cuotas.xlsx
+++ b/Pago-Cuotas.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PAGO-CUOTAS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAGO-CUOTAS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>2</col>
@@ -367,24 +367,24 @@
       <nvPicPr>
         <cNvPr id="4" name="Imagen 3"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="1766102" y="0"/>
           <a:ext cx="841777" cy="945190"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -776,7 +776,7 @@
       </c>
       <c r="E7" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">mz 123, dsfsdf </t>
+          <t>sadas</t>
         </is>
       </c>
       <c r="F7" s="15" t="n"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>asasassas ssssd ffff</t>
+          <t>sas assa</t>
         </is>
       </c>
       <c r="C9" s="26" t="n"/>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B10" s="14" t="n">
-        <v>23456784</v>
+        <v>3232</v>
       </c>
       <c r="C10" s="10" t="n"/>
       <c r="D10" s="10" t="n"/>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B12" s="16" t="n">
-        <v>50000</v>
+        <v>345435</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="E12" s="18" t="n">
-        <v>49800</v>
+        <v>345102</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B13" s="17" t="n">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="E13" s="9" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="n"/>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B16" s="12" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="E16" s="13" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="F16" s="5" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="E17" s="13" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2024-07-22</t>
         </is>
       </c>
     </row>
@@ -955,19 +955,19 @@
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-1</t>
+          <t>HI-OLI-SA-1</t>
         </is>
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="D21" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>45650</v>
+        <v>335242</v>
       </c>
       <c r="F21" s="11" t="n"/>
     </row>
@@ -977,19 +977,19 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-2</t>
+          <t>HI-OLI-SA-2</t>
         </is>
       </c>
       <c r="C22" s="19" t="inlineStr">
         <is>
-          <t>2021-08-22</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="D22" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>41500</v>
+        <v>325382</v>
       </c>
       <c r="F22" s="11" t="n"/>
     </row>
@@ -999,19 +999,19 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-3</t>
+          <t>HI-OLI-SA-3</t>
         </is>
       </c>
       <c r="C23" s="19" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="D23" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>37350</v>
+        <v>315522</v>
       </c>
       <c r="F23" s="11" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-4</t>
+          <t>HI-OLI-SA-4</t>
         </is>
       </c>
       <c r="C24" s="19" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="D24" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E24" s="19" t="n">
-        <v>33200</v>
+        <v>305662</v>
       </c>
       <c r="F24" s="11" t="n"/>
     </row>
@@ -1043,19 +1043,19 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-5</t>
+          <t>HI-OLI-SA-5</t>
         </is>
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2022-01-22</t>
         </is>
       </c>
       <c r="D25" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E25" s="19" t="n">
-        <v>29050</v>
+        <v>295802</v>
       </c>
       <c r="F25" s="11" t="n"/>
     </row>
@@ -1065,19 +1065,19 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-6</t>
+          <t>HI-OLI-SA-6</t>
         </is>
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="D26" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E26" s="19" t="n">
-        <v>24900</v>
+        <v>285942</v>
       </c>
       <c r="F26" s="11" t="n"/>
     </row>
@@ -1087,19 +1087,19 @@
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-7</t>
+          <t>HI-OLI-SA-7</t>
         </is>
       </c>
       <c r="C27" s="19" t="inlineStr">
         <is>
-          <t>2022-01-22</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="D27" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E27" s="19" t="n">
-        <v>20750</v>
+        <v>276082</v>
       </c>
       <c r="F27" s="11" t="n"/>
     </row>
@@ -1109,19 +1109,19 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-8</t>
+          <t>HI-OLI-SA-8</t>
         </is>
       </c>
       <c r="C28" s="19" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="D28" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E28" s="19" t="n">
-        <v>16600</v>
+        <v>266222</v>
       </c>
       <c r="F28" s="11" t="n"/>
     </row>
@@ -1131,19 +1131,19 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-9</t>
+          <t>HI-OLI-SA-9</t>
         </is>
       </c>
       <c r="C29" s="19" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="D29" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E29" s="19" t="n">
-        <v>12450</v>
+        <v>256361</v>
       </c>
       <c r="F29" s="11" t="n"/>
     </row>
@@ -1153,19 +1153,19 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-10</t>
+          <t>HI-OLI-SA-10</t>
         </is>
       </c>
       <c r="C30" s="19" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="D30" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E30" s="19" t="n">
-        <v>8300</v>
+        <v>246501</v>
       </c>
       <c r="F30" s="11" t="n"/>
     </row>
@@ -1175,19 +1175,19 @@
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-11</t>
+          <t>HI-OLI-SA-11</t>
         </is>
       </c>
       <c r="C31" s="19" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="D31" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E31" s="19" t="n">
-        <v>4150</v>
+        <v>236641</v>
       </c>
       <c r="F31" s="11" t="n"/>
     </row>
@@ -1197,456 +1197,525 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>HI-OLI-ASF-12</t>
+          <t>HI-OLI-SA-12</t>
         </is>
       </c>
       <c r="C32" s="19" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="D32" s="19" t="n">
-        <v>4150</v>
+        <v>9860</v>
       </c>
       <c r="E32" s="19" t="n">
+        <v>226781</v>
+      </c>
+      <c r="F32" s="11" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-13</t>
+        </is>
+      </c>
+      <c r="C33" s="19" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="D33" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E33" s="19" t="n">
+        <v>216921</v>
+      </c>
+      <c r="F33" s="11" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>14</v>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-14</t>
+        </is>
+      </c>
+      <c r="C34" s="19" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
+      </c>
+      <c r="D34" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E34" s="19" t="n">
+        <v>207061</v>
+      </c>
+      <c r="F34" s="11" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-15</t>
+        </is>
+      </c>
+      <c r="C35" s="19" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="D35" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E35" s="19" t="n">
+        <v>197201</v>
+      </c>
+      <c r="F35" s="11" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-16</t>
+        </is>
+      </c>
+      <c r="C36" s="19" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
+      </c>
+      <c r="D36" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E36" s="19" t="n">
+        <v>187341</v>
+      </c>
+      <c r="F36" s="11" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17</v>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-17</t>
+        </is>
+      </c>
+      <c r="C37" s="19" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="D37" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E37" s="19" t="n">
+        <v>177481</v>
+      </c>
+      <c r="F37" s="11" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-18</t>
+        </is>
+      </c>
+      <c r="C38" s="19" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="D38" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E38" s="19" t="n">
+        <v>167621</v>
+      </c>
+      <c r="F38" s="11" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19</v>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-19</t>
+        </is>
+      </c>
+      <c r="C39" s="19" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="D39" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E39" s="19" t="n">
+        <v>157761</v>
+      </c>
+      <c r="F39" s="11" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20</v>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-20</t>
+        </is>
+      </c>
+      <c r="C40" s="19" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
+      <c r="D40" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E40" s="19" t="n">
+        <v>147901</v>
+      </c>
+      <c r="F40" s="11" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21</v>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-21</t>
+        </is>
+      </c>
+      <c r="C41" s="19" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="D41" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E41" s="19" t="n">
+        <v>138041</v>
+      </c>
+      <c r="F41" s="11" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22</v>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-22</t>
+        </is>
+      </c>
+      <c r="C42" s="19" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="D42" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E42" s="19" t="n">
+        <v>128181</v>
+      </c>
+      <c r="F42" s="11" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23</v>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-23</t>
+        </is>
+      </c>
+      <c r="C43" s="19" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="D43" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E43" s="19" t="n">
+        <v>118321</v>
+      </c>
+      <c r="F43" s="11" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>24</v>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-24</t>
+        </is>
+      </c>
+      <c r="C44" s="19" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="D44" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E44" s="19" t="n">
+        <v>108461</v>
+      </c>
+      <c r="F44" s="11" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25</v>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-25</t>
+        </is>
+      </c>
+      <c r="C45" s="19" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="D45" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E45" s="19" t="n">
+        <v>98601</v>
+      </c>
+      <c r="F45" s="11" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>26</v>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-26</t>
+        </is>
+      </c>
+      <c r="C46" s="19" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="D46" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E46" s="19" t="n">
+        <v>88741</v>
+      </c>
+      <c r="F46" s="11" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27</v>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-27</t>
+        </is>
+      </c>
+      <c r="C47" s="19" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="D47" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E47" s="19" t="n">
+        <v>78880</v>
+      </c>
+      <c r="F47" s="11" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28</v>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-28</t>
+        </is>
+      </c>
+      <c r="C48" s="19" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="D48" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E48" s="19" t="n">
+        <v>69020</v>
+      </c>
+      <c r="F48" s="11" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>29</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-29</t>
+        </is>
+      </c>
+      <c r="C49" s="19" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="D49" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E49" s="19" t="n">
+        <v>59160</v>
+      </c>
+      <c r="F49" s="11" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>30</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-30</t>
+        </is>
+      </c>
+      <c r="C50" s="19" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="D50" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E50" s="19" t="n">
+        <v>49300</v>
+      </c>
+      <c r="F50" s="11" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-31</t>
+        </is>
+      </c>
+      <c r="C51" s="19" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="D51" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E51" s="19" t="n">
+        <v>39440</v>
+      </c>
+      <c r="F51" s="11" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32</v>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-32</t>
+        </is>
+      </c>
+      <c r="C52" s="19" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="D52" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E52" s="19" t="n">
+        <v>29580</v>
+      </c>
+      <c r="F52" s="11" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-33</t>
+        </is>
+      </c>
+      <c r="C53" s="19" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="D53" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E53" s="19" t="n">
+        <v>19720</v>
+      </c>
+      <c r="F53" s="11" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-34</t>
+        </is>
+      </c>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E54" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="F54" s="11" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>HI-OLI-SA-35</t>
+        </is>
+      </c>
+      <c r="C55" s="19" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="D55" s="19" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E55" s="19" t="n">
         <v>0</v>
-      </c>
-      <c r="F32" s="11" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E33" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F33" s="11" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D34" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E34" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D35" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E35" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D36" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E36" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D37" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E37" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D38" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E38" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D39" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E39" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D40" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E40" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F40" s="11" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D41" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E41" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D42" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E42" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F42" s="11" t="n"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D43" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E43" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F43" s="11" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D44" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E44" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F44" s="11" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="6" t="n"/>
-      <c r="C45" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D45" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E45" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F45" s="11" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="6" t="n"/>
-      <c r="C46" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D46" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E46" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F46" s="11" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D47" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E47" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F47" s="11" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="6" t="n"/>
-      <c r="C48" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D48" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E48" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F48" s="11" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D49" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E49" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F49" s="11" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D50" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E50" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F50" s="11" t="n"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D51" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E51" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F51" s="11" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D52" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E52" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F52" s="11" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D53" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E53" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F53" s="11" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D54" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E54" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="F54" s="11" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D55" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E55" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
       </c>
       <c r="F55" s="11" t="n"/>
     </row>
@@ -2303,6 +2372,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>